--- a/August.xlsx
+++ b/August.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>onion</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>cash</t>
+  </si>
+  <si>
+    <t>veg</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,6 +517,14 @@
       </c>
       <c r="B13" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/August.xlsx
+++ b/August.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KK" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>onion</t>
   </si>
@@ -59,14 +59,37 @@
   </si>
   <si>
     <t>veg</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Chicken+Onion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,8 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -534,12 +558,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/August.xlsx
+++ b/August.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>onion</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Chicken+Onion</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
 </sst>
 </file>
@@ -558,11 +561,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,6 +605,14 @@
         <v>90</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/August.xlsx
+++ b/August.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>onion</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>Water</t>
+  </si>
+  <si>
+    <t>chiken</t>
+  </si>
+  <si>
+    <t>macd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chiken </t>
   </si>
 </sst>
 </file>
@@ -431,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,6 +561,46 @@
       </c>
       <c r="B14" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>260</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/August.xlsx
+++ b/August.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>onion</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t xml:space="preserve">chiken </t>
+  </si>
+  <si>
+    <t>Grocery</t>
+  </si>
+  <si>
+    <t>Swigge</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection sqref="A1:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,11 +616,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +665,31 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/August.xlsx
+++ b/August.xlsx
@@ -449,7 +449,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/August.xlsx
+++ b/August.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>onion</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Swigge</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,18 +612,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>SUM(A1:A19)</f>
+        <v>2551</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,6 +705,14 @@
         <v>130</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>1611</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
